--- a/data/trans_bre/PCS12_SP_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.77863147390363</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.396773236891959</v>
+        <v>6.396773236891951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5095055955212533</v>
@@ -649,7 +649,7 @@
         <v>0.1294230747999336</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4620470295766371</v>
+        <v>0.4620470295766364</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7704692317845185</v>
+        <v>0.6865105831437425</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.427682420405794</v>
+        <v>-2.953536606245281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.723622498850435</v>
+        <v>-3.201046532178375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.856759599896036</v>
+        <v>2.281346802419029</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05075181231619655</v>
+        <v>0.06163058969422482</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2355510989444217</v>
+        <v>-0.2076418256359368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2283689950226459</v>
+        <v>-0.2097140310480483</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1182283842421919</v>
+        <v>0.1484241478541038</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.59518205706491</v>
+        <v>11.82821631271483</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.995867747490959</v>
+        <v>7.912676474019332</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.383696026069931</v>
+        <v>7.396757305704893</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.3394422401124</v>
+        <v>10.71651349998115</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.132252077065196</v>
+        <v>1.226636754321903</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7405173262242759</v>
+        <v>0.7568807804835053</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.630845116796187</v>
+        <v>0.6178341849615886</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8875205205516152</v>
+        <v>0.9027560983822693</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9941575993414378</v>
+        <v>-1.065070321871401</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.301012173859578</v>
+        <v>-6.557746153254576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.638971895993376</v>
+        <v>-1.986683586870025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.03115427762836647</v>
+        <v>0.242656269504747</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1052798086179351</v>
+        <v>-0.1103755629191874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3536451856232987</v>
+        <v>-0.3575720195700635</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.136300733914235</v>
+        <v>-0.1531600515905588</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.008962774216993985</v>
+        <v>0.008657821404807161</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.632587969905035</v>
+        <v>8.5817349218141</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.156641785333698</v>
+        <v>4.803304172114204</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.004503087884141</v>
+        <v>8.349041669910855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.392813938698383</v>
+        <v>9.04026624302365</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.284710807280343</v>
+        <v>1.21940285041668</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3101309709575436</v>
+        <v>0.4072513964655124</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9164614725708301</v>
+        <v>0.9360049839410092</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6174845814932126</v>
+        <v>0.6046930312452736</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.340900445186322</v>
+        <v>4.210912919665331</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4965999906071889</v>
+        <v>0.4583158627693427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.507769646763448</v>
+        <v>2.837253326118613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.775176136186697</v>
+        <v>7.19536173142689</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1976247121669149</v>
+        <v>0.2383008341001251</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01853206599295345</v>
+        <v>0.0161183458265583</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1708384459056926</v>
+        <v>0.1407340223745469</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2795365299862619</v>
+        <v>0.2816779516395405</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.84380125526871</v>
+        <v>18.96365016992898</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.33371072443673</v>
+        <v>14.22953069049753</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.44600726627577</v>
+        <v>19.88316240647943</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.59103475319688</v>
+        <v>21.76437555405833</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.315754487547162</v>
+        <v>1.321079343122507</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7169925801672981</v>
+        <v>0.7195095963754852</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.175529343923608</v>
+        <v>1.159430519833281</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9817191093501126</v>
+        <v>1.008564650643227</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.1419459307319487</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.594976885246784</v>
+        <v>0.5949768852467896</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0946916548470331</v>
@@ -949,7 +949,7 @@
         <v>0.007360091402607736</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02269648504263372</v>
+        <v>0.02269648504263393</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.710313890487978</v>
+        <v>-1.649368350585894</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.414676024331605</v>
+        <v>-4.500636845056531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.272176202509733</v>
+        <v>-3.615896781179704</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.964830930495979</v>
+        <v>-2.851169490869043</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07804976387804893</v>
+        <v>-0.07670255080638165</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1993255925235493</v>
+        <v>-0.2010341050340293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.155405948354459</v>
+        <v>-0.1692907210602012</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.102753434998722</v>
+        <v>-0.09953489038904297</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.929594969310783</v>
+        <v>6.217655811061981</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.264141616822903</v>
+        <v>3.355398352923391</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.033618379670643</v>
+        <v>3.948827820564444</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.485395385716427</v>
+        <v>4.38278169504509</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3097112248228669</v>
+        <v>0.3245014641785364</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1637825526385363</v>
+        <v>0.1789115698954028</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2275550753657266</v>
+        <v>0.2244163572487065</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1844985076970363</v>
+        <v>0.1796789981207971</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>10.21299663770847</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12.65379430097556</v>
+        <v>12.65379430097557</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4238667625987586</v>
@@ -1049,7 +1049,7 @@
         <v>0.4577718293252279</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4865580727249546</v>
+        <v>0.4865580727249547</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.303670093031451</v>
+        <v>2.430245481419747</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.85154983602264</v>
+        <v>14.2758217413927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.177313054599553</v>
+        <v>5.545629769669735</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.573506704419504</v>
+        <v>7.779361957430019</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1074559543954416</v>
+        <v>0.1106430017885592</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6249351409714708</v>
+        <v>0.6160893496444881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2138358815406057</v>
+        <v>0.2222015516000907</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2564686324865378</v>
+        <v>0.2665911080107364</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.83932615685238</v>
+        <v>14.41309687376118</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.929042843854</v>
+        <v>23.86889210135066</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.21338036738721</v>
+        <v>15.17296151091392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.31067871550305</v>
+        <v>17.11301914396024</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8386607605602338</v>
+        <v>0.885105891907297</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.470196686105512</v>
+        <v>1.463725905968529</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7590248172988779</v>
+        <v>0.7510625986548044</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7641208466103004</v>
+        <v>0.7442970024136616</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>31.16735471430578</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31.00686494204248</v>
+        <v>31.00686494204249</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>8.389411213791499</v>
@@ -1149,7 +1149,7 @@
         <v>13.07932268226416</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7.328642233111368</v>
+        <v>7.328642233111372</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>28.50336551181038</v>
+        <v>28.13342201715222</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>28.71724976830995</v>
+        <v>28.11898988333968</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27.86881777361411</v>
+        <v>27.39079174743718</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26.98670051320233</v>
+        <v>26.91536727274844</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>4.598894578920578</v>
+        <v>4.552710920242344</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.908448869047958</v>
+        <v>3.670754265573664</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>5.48981339514506</v>
+        <v>5.670011592392701</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>3.715395834607716</v>
+        <v>3.377357478318103</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>35.28972660392103</v>
+        <v>35.45533774778568</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>36.88130649497497</v>
+        <v>35.99217451520783</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34.87783626124193</v>
+        <v>34.65843509452073</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34.675614407474</v>
+        <v>34.78656304383666</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>16.58615314493601</v>
+        <v>16.73921206384544</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>16.53701892633764</v>
+        <v>13.46366367470161</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>35.30050467004065</v>
+        <v>39.86507605784072</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>15.48175450124689</v>
+        <v>14.67253783013413</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>9.325036624833913</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9.460551468042702</v>
+        <v>9.460551468042697</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7196232763903536</v>
@@ -1249,7 +1249,7 @@
         <v>0.5574642463371461</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4466794762173383</v>
+        <v>0.4466794762173379</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.385975155034012</v>
+        <v>9.335293615832713</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.951057707783471</v>
+        <v>9.088759274453153</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.44677418746876</v>
+        <v>7.226324916054722</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.374875080166834</v>
+        <v>7.573260324720891</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5574423773697247</v>
+        <v>0.5604840960107391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4708745454638106</v>
+        <v>0.4787247759113457</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4207941267116131</v>
+        <v>0.4130400284875833</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3281729799171637</v>
+        <v>0.34290891720246</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.31587567466706</v>
+        <v>13.36817352344818</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.31749044758269</v>
+        <v>13.25252361635759</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.28141102822221</v>
+        <v>11.19139322527971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.2464763269865</v>
+        <v>11.35585164686212</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.895315866048397</v>
+        <v>0.9081594023592698</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7885995373801721</v>
+        <v>0.7861805948041346</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7186561011473516</v>
+        <v>0.7144814375443425</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5553940863609729</v>
+        <v>0.5657062356557201</v>
       </c>
     </row>
     <row r="25">
